--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3175528.415567012</v>
+        <v>3169806.803599127</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8184978658198</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>259.5137794056238</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>26.32882004050051</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>129.0036366911897</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>355.9236354922321</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.2841839626602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>108.610094156796</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>205.1478855987996</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>379.4996848343321</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.4548648132227</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>19.85889072024083</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534536</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,13 +1584,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>9.431198642871019</v>
       </c>
       <c r="V13" t="n">
-        <v>138.5369172686241</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>95.40034858567714</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2022,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>128.2802547328149</v>
+        <v>99.72921986893104</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>121.4166471685771</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>94.50445854634152</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>15.11174121957046</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>125.4908549221323</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.19750939009553</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>6.377205675418844</v>
+        <v>276.7747403410135</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>185.9256704560929</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.07379336750889</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>69.60662835550634</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>190.2777421772097</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247837</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.2029156718637</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>61.60385878691194</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>12.38867521109757</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>284.9708799151937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.195303554219</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.195303554219</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1106.929604947469</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>1106.929604947469</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>469.5440885380262</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.195303554219</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>227.4276970359521</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>80.53774953804174</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8222804779598</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8222804779598</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8222804779598</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1317.927233509</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.927233509</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.66153490225</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>573.8732823040057</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177357</v>
+        <v>566.9277815548022</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224074</v>
@@ -4579,16 +4579,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287637</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629044</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629044</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>357.2197656505687</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>209.3066720681755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629044</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1348.719328075852</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.719328075852</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>990.453629469102</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>604.6653768708577</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051664</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.719328075852</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.7458755710944</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C10" t="n">
-        <v>188.7458755710944</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>188.7458755710944</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>188.7458755710944</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>188.7458755710944</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>188.7458755710944</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146245</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146245</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146245</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146245</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.7458755710944</v>
+        <v>418.6523285934727</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5044,25 +5044,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2209.609207880054</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3189.361480106701</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,10 +5120,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>393.5907674431232</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C13" t="n">
-        <v>393.5907674431232</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1533.364503225429</v>
       </c>
       <c r="V13" t="n">
-        <v>1024.02136231491</v>
+        <v>1278.680015019542</v>
       </c>
       <c r="W13" t="n">
-        <v>1024.02136231491</v>
+        <v>989.2628449825811</v>
       </c>
       <c r="X13" t="n">
-        <v>796.0318114168931</v>
+        <v>761.2732940845638</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.239232273363</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467731</v>
       </c>
       <c r="L14" t="n">
-        <v>1088.893283004706</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M14" t="n">
-        <v>1622.425187676631</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5351,7 +5351,7 @@
         <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,7 +5372,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902953</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,16 +5439,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
-        <v>1356.696520788203</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1102.012032582316</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W16" t="n">
-        <v>812.5948625453557</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X16" t="n">
-        <v>812.5948625453557</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y16" t="n">
-        <v>591.8022834018255</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="17">
@@ -5515,37 +5515,37 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2373.979363934262</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.758180993044</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.722831322499</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7429179653792</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
         <v>506.8067350374723</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1736.936993980601</v>
+        <v>1855.60688037851</v>
       </c>
       <c r="U19" t="n">
-        <v>1447.834127106244</v>
+        <v>1566.504013504154</v>
       </c>
       <c r="V19" t="n">
-        <v>1193.149638900357</v>
+        <v>1311.819525298267</v>
       </c>
       <c r="W19" t="n">
-        <v>903.7324688633965</v>
+        <v>1022.402355261306</v>
       </c>
       <c r="X19" t="n">
-        <v>675.7429179653792</v>
+        <v>1022.402355261306</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.7429179653792</v>
+        <v>801.6097761177758</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5758,22 +5758,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1407.474004094473</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>1941.005908766397</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.758180993044</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3479.86497706745</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C22" t="n">
-        <v>3310.928794139543</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D22" t="n">
-        <v>3160.812154727208</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>3160.812154727208</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.05172241972</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>4556.285106989246</v>
+        <v>1552.184046741</v>
       </c>
       <c r="U22" t="n">
-        <v>4267.182240114889</v>
+        <v>1552.184046741</v>
       </c>
       <c r="V22" t="n">
-        <v>4267.182240114889</v>
+        <v>1297.499558535113</v>
       </c>
       <c r="W22" t="n">
-        <v>3977.765070077929</v>
+        <v>1008.082388498152</v>
       </c>
       <c r="X22" t="n">
-        <v>3882.30602104122</v>
+        <v>780.0928376001349</v>
       </c>
       <c r="Y22" t="n">
-        <v>3661.51344189769</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>722.4071781934679</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846823</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3644.341121778306</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>3475.404938850399</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>3475.404938850399</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.404938850399</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352489</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>4496.535381004074</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>4207.432514129718</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>3952.748025923831</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>3825.989586608546</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>3825.989586608546</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>3825.989586608546</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,52 +6226,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>304.0396960664507</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>637.8590697562972</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M26" t="n">
-        <v>1897.67628410419</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3360.4930644558</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>3360.4930644558</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>3210.376425043464</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>3210.376425043464</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4688.221265177249</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>4466.454649746775</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>4177.351782872418</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>3922.667294666531</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>3633.250124629571</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>3633.250124629571</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3542.14152928604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6451,7 +6451,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1530.944718129077</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2064.476622801002</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3383.212060601565</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C31" t="n">
-        <v>3214.275877673658</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>3064.159238261322</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>3064.159238261322</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.768765573601</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U31" t="n">
-        <v>4268.327143679238</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="V31" t="n">
-        <v>4013.642655473352</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W31" t="n">
-        <v>4013.642655473352</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X31" t="n">
-        <v>3785.653104575335</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y31" t="n">
-        <v>3564.860525431804</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968866</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
         <v>3547.201365906985</v>
@@ -6770,10 +6770,10 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6888,22 +6888,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1420.142636483171</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1130.72546644621</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>942.9217589148035</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>722.1291797712734</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6940,22 +6940,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2628.734306600803</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3175.513123659585</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3495.091030974026</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3326.154848046119</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3176.038208633783</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4556.285106989247</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4267.18224011489</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4012.497751909003</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>3723.080581872043</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>3495.091030974026</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3495.091030974026</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.189928969822</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196468</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,40 +7253,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.3941514382108</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C40" t="n">
-        <v>557.3941514382108</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D40" t="n">
-        <v>557.3941514382108</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1198.376021052697</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W40" t="n">
-        <v>1006.176281479758</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X40" t="n">
-        <v>778.1867305817409</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y40" t="n">
-        <v>557.3941514382108</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>357.0540087506616</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>690.8733824405082</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1141.907595688917</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518746</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577528</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906983</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973205</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161936</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549423</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494868</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763718</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468574</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
         <v>1715.000032008795</v>
@@ -7508,34 +7508,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>676.4156786811474</v>
+        <v>452.5901955154776</v>
       </c>
       <c r="C43" t="n">
-        <v>507.4794957532405</v>
+        <v>452.5901955154776</v>
       </c>
       <c r="D43" t="n">
-        <v>507.4794957532405</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>507.4794957532405</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557402</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1355.643526557402</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>1066.226356520441</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X43" t="n">
-        <v>838.2368056224238</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y43" t="n">
-        <v>838.2368056224238</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7651,25 +7651,25 @@
         <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846821</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518746</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577528</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906983</v>
+        <v>3554.371154826472</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353929</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.6776738607301</v>
+        <v>402.8778888732409</v>
       </c>
       <c r="C46" t="n">
-        <v>245.6776738607301</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839441</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689059</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258585</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987876</v>
       </c>
       <c r="V46" t="n">
-        <v>1163.957642384228</v>
+        <v>1322.725653781989</v>
       </c>
       <c r="W46" t="n">
-        <v>876.1082687325173</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X46" t="n">
-        <v>648.1187178345</v>
+        <v>805.3189328470107</v>
       </c>
       <c r="Y46" t="n">
-        <v>427.3261386909699</v>
+        <v>584.5263537034806</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
-        <v>288.7672650676784</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>317.5146261106126</v>
       </c>
       <c r="L14" t="n">
-        <v>19.79750571619286</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>37.13651117804329</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>103.7862464855155</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9406,10 +9406,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>341.5962138876742</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>297.8289162490805</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9418,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>105.1996354507086</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>19.7975057161928</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>142.1686942807564</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M32" t="n">
-        <v>161.8544041422903</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10588,25 +10588,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.9882388354705</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10825,25 +10825,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>23.80814351663628</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.34731650832487</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>353.7642348290835</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>248.840077268714</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>276.7806395627418</v>
       </c>
       <c r="V13" t="n">
-        <v>113.6007260552039</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>190.8114896199357</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>91.26869454335434</v>
+        <v>119.8197294072382</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>98.1323021075921</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>131.2051968426956</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.1000969860424</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>161.0321434144587</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.3871439619992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>279.834632530194</v>
+        <v>9.437097864599423</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>39.78398493294424</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>131.3601692790603</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>110.225351826431</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>96.24525615938134</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.62906451007359</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>87.01161423130043</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>154.8581458875303</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.552118421397267</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732102.7947860796</v>
+        <v>732102.7947860797</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732102.7947860797</v>
+        <v>732102.7947860796</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846412</v>
-      </c>
-      <c r="C2" t="n">
-        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="F2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="I2" t="n">
         <v>675039.0377078718</v>
-      </c>
-      <c r="F2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="G2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078711</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078715</v>
       </c>
       <c r="J2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="K2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078719</v>
       </c>
       <c r="L2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="M2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="N2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="O2" t="n">
-        <v>675039.0377078718</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="P2" t="n">
-        <v>675039.0377078718</v>
+        <v>675039.0377078716</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
@@ -26432,16 +26432,16 @@
         <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918991</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26453,10 +26453,10 @@
         <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918991</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26484,7 +26484,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26505,7 +26505,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-158290.1397504408</v>
       </c>
       <c r="C6" t="n">
-        <v>431677.7394641035</v>
+        <v>431677.7394641038</v>
       </c>
       <c r="D6" t="n">
-        <v>431677.7394641038</v>
+        <v>431677.7394641037</v>
       </c>
       <c r="E6" t="n">
-        <v>-166870.3868584383</v>
+        <v>-167542.3417606968</v>
       </c>
       <c r="F6" t="n">
-        <v>560507.0271349679</v>
+        <v>559835.0722327096</v>
       </c>
       <c r="G6" t="n">
-        <v>560507.0271349681</v>
+        <v>559835.0722327103</v>
       </c>
       <c r="H6" t="n">
-        <v>560507.0271349675</v>
+        <v>559835.0722327101</v>
       </c>
       <c r="I6" t="n">
-        <v>560507.027134968</v>
+        <v>559835.0722327103</v>
       </c>
       <c r="J6" t="n">
-        <v>384083.8079423751</v>
+        <v>383411.853040117</v>
       </c>
       <c r="K6" t="n">
-        <v>560507.0271349679</v>
+        <v>559835.0722327104</v>
       </c>
       <c r="L6" t="n">
-        <v>560507.0271349681</v>
+        <v>559835.0722327102</v>
       </c>
       <c r="M6" t="n">
-        <v>430864.7122960233</v>
+        <v>430192.7573937654</v>
       </c>
       <c r="N6" t="n">
-        <v>560507.0271349679</v>
+        <v>559835.0722327101</v>
       </c>
       <c r="O6" t="n">
-        <v>560507.0271349681</v>
+        <v>559835.07223271</v>
       </c>
       <c r="P6" t="n">
-        <v>560507.0271349682</v>
+        <v>559835.0722327098</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593299</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>254.0575478758916</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>140.9809822185504</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.2782375507881</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>57.86053452856288</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.95375469339342</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>36.81095386613526</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>20.56176979023752</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>27.37636090737936</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>22.71602402857243</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.263859234673482</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-4.828951333145716e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
-        <v>827.6883808979052</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660132</v>
       </c>
       <c r="L14" t="n">
-        <v>475.387620108525</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>576.0576270082701</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048871</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>797.1863282800064</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>836.7500320793071</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>442.3909220061091</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>210.5845066849054</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36603,7 +36603,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>836.7500320793075</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
@@ -36615,10 +36615,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>597.7588086730885</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36855,7 +36855,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M32" t="n">
-        <v>700.775519972517</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0412397236896</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>562.729259346863</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>264.1343174770375</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230594</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L44" t="n">
-        <v>809.3543492214158</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302269</v>
@@ -38031,16 +38031,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>647.6020634880859</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636243</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3169806.803599127</v>
+        <v>3173212.294723575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>91.4739706906593</v>
       </c>
       <c r="G2" t="n">
-        <v>259.5137794056238</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>129.0036366911897</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>355.9236354922321</v>
+        <v>241.2461880278302</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>205.1478855987996</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191318943</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.255748559886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.85889072024083</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>125.8721928563315</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.921725653454</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>9.431198642871019</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>210.7850919319917</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.7576914549245</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.74455946606851</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>99.72921986893104</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734080389</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.26879610203892</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>121.4166471685771</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>15.11174121957046</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>80.6539329414239</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734080389</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486457</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>276.7747403410135</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>158.4482401433266</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>138.2178776215696</v>
       </c>
       <c r="T34" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.54171107304281</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>209.567519332071</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534532</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.60662835550634</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>89.25253978832342</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>61.60385878691194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.7389995830103</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>12.38867521109757</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851095033</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532628</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.318245925878</v>
+        <v>546.052588672603</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5299933276337</v>
+        <v>160.2643360743587</v>
       </c>
       <c r="F2" t="n">
-        <v>469.5440885380262</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
         <v>369.8327295799424</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U4" t="n">
-        <v>597.8222804779598</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V4" t="n">
-        <v>597.8222804779598</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W4" t="n">
-        <v>597.8222804779598</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X4" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.927233509</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.927233509</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="D5" t="n">
-        <v>959.66153490225</v>
+        <v>1171.020449346649</v>
       </c>
       <c r="E5" t="n">
-        <v>573.8732823040057</v>
+        <v>785.2321967484049</v>
       </c>
       <c r="F5" t="n">
-        <v>566.9277815548022</v>
+        <v>778.2866959992015</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>520.9088977430002</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.9088977430002</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>808.083928634017</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>80.85571308685473</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177354</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934727</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>708.0694986304334</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W10" t="n">
-        <v>418.6523285934727</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X10" t="n">
-        <v>418.6523285934727</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.6523285934727</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5120,10 +5120,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.4807149410336</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1533.364503225429</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1278.680015019542</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>989.2628449825811</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X13" t="n">
-        <v>761.2732940845638</v>
+        <v>985.4617867779582</v>
       </c>
       <c r="Y13" t="n">
-        <v>540.4807149410336</v>
+        <v>985.4617867779582</v>
       </c>
     </row>
     <row r="14">
@@ -5269,37 +5269,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.44016540742</v>
+        <v>360.1279170711156</v>
       </c>
       <c r="K14" t="n">
-        <v>932.5990189467731</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600128</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272053</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,10 +5308,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,25 +5372,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>295.0555540245452</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>148.838367242403</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,16 +5439,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258585</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783413</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413808</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433634</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998333</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="17">
@@ -5515,37 +5515,37 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195856</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N17" t="n">
-        <v>3195.001976422503</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O17" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1855.60688037851</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1566.504013504154</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1311.819525298267</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1022.402355261306</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1022.402355261306</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>801.6097761177758</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5737,61 +5737,61 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M20" t="n">
-        <v>1897.676284104189</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
         <v>1241.476988454339</v>
@@ -5846,25 +5846,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.3002584566048</v>
+        <v>260.9043113423037</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423037</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423037</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>260.9043113423037</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443933</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443933</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5910,13 +5910,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5928,34 +5928,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1552.184046741</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U22" t="n">
-        <v>1552.184046741</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1297.499558535113</v>
+        <v>999.1036114208117</v>
       </c>
       <c r="W22" t="n">
-        <v>1008.082388498152</v>
+        <v>709.6864413838512</v>
       </c>
       <c r="X22" t="n">
-        <v>780.0928376001349</v>
+        <v>481.6968904858338</v>
       </c>
       <c r="Y22" t="n">
-        <v>559.3002584566048</v>
+        <v>260.9043113423037</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K23" t="n">
         <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320239</v>
@@ -6080,16 +6080,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142067</v>
@@ -6098,19 +6098,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y24" t="n">
         <v>1138.808109517387</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D25" t="n">
         <v>263.2638710736754</v>
@@ -6147,13 +6147,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6165,7 +6165,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.79612418831</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>1274.174907424649</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454626</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>304.0396960664507</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K26" t="n">
-        <v>637.8590697562972</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1088.893283004706</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M26" t="n">
-        <v>1622.425187676631</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6399,22 +6399,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U28" t="n">
         <v>1270.093287563029</v>
@@ -6445,46 +6445,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.85891762269</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O29" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6542,25 +6542,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.4103109586945</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C31" t="n">
-        <v>243.4741280307875</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6621,13 +6621,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U31" t="n">
-        <v>1586.942564073329</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V31" t="n">
-        <v>1332.258075867442</v>
+        <v>1796.294738687201</v>
       </c>
       <c r="W31" t="n">
-        <v>1042.840905830482</v>
+        <v>1506.87756865024</v>
       </c>
       <c r="X31" t="n">
-        <v>814.8513549324643</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.0587757889342</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6952,37 +6952,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1912.361939768297</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1720.676055595123</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1498.909440164649</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1209.806573290293</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>955.1220850844059</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="38">
@@ -7156,49 +7156,49 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195856</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>411.3871648742117</v>
+        <v>499.6351384500838</v>
       </c>
       <c r="C40" t="n">
-        <v>242.4509819463048</v>
+        <v>499.6351384500838</v>
       </c>
       <c r="D40" t="n">
-        <v>242.4509819463048</v>
+        <v>499.6351384500838</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>499.6351384500838</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>499.6351384500838</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>331.9323018248027</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>185.7151150426605</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838516</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858343</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y40" t="n">
-        <v>481.6968904858343</v>
+        <v>681.2836032803235</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7481,19 +7481,19 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7502,10 +7502,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902952</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>452.5901955154776</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C43" t="n">
-        <v>452.5901955154776</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570251</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590077</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154776</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467722</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216428</v>
+        <v>1797.117834600127</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888352</v>
+        <v>2330.649739272052</v>
       </c>
       <c r="N44" t="n">
-        <v>3051.398683947134</v>
+        <v>2877.428556330834</v>
       </c>
       <c r="O44" t="n">
-        <v>3554.371154826472</v>
+        <v>3757.393206660289</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.8778888732409</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C46" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839441</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T46" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.410141987876</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.725653781989</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W46" t="n">
-        <v>1033.308483745028</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X46" t="n">
-        <v>805.3189328470107</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.5263537034806</v>
+        <v>446.145682206541</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>76.45227440777347</v>
       </c>
       <c r="K14" t="n">
-        <v>317.5146261106126</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>103.7862464855155</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>297.8289162490805</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476859</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.83833503974995e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,13 +9646,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>344.7025836476861</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.7975057161928</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>344.702583647685</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.83833503974995e-12</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476859</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>219.3344627260169</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106117</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>248.840077268714</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>276.7806395627418</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>14.92456345704545</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270128</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>43.60786094376958</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>119.8197294072382</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>126.4862188122819</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>98.1323021075921</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.1000969860424</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>171.4837103824041</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.14213605696722</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24894,10 +24894,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>9.437097864599423</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>93.68940318050144</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>51.55114770987225</v>
       </c>
       <c r="T34" t="n">
-        <v>105.0742887270136</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>45.39044159700452</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.14213605696619</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.225351826431</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>7.099880621514671</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>87.01161423130043</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>24.01601533131047</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>154.8581458875303</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.3211098256407</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732102.7947860796</v>
+        <v>732102.7947860797</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="F2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="F2" t="n">
-        <v>675039.0377078713</v>
-      </c>
       <c r="G2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="H2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="J2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="L2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="M2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="N2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="O2" t="n">
         <v>675039.0377078718</v>
       </c>
-      <c r="J2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675039.0377078719</v>
-      </c>
-      <c r="L2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="M2" t="n">
-        <v>675039.0377078718</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="O2" t="n">
-        <v>675039.0377078714</v>
-      </c>
       <c r="P2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078715</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26429,34 +26429,34 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918997</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918991</v>
@@ -26484,7 +26484,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26493,16 +26493,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158290.1397504408</v>
+        <v>-158290.1397504405</v>
       </c>
       <c r="C6" t="n">
+        <v>431677.7394641037</v>
+      </c>
+      <c r="D6" t="n">
         <v>431677.7394641038</v>
       </c>
-      <c r="D6" t="n">
-        <v>431677.7394641037</v>
-      </c>
       <c r="E6" t="n">
-        <v>-167542.3417606968</v>
+        <v>-166937.5823486649</v>
       </c>
       <c r="F6" t="n">
-        <v>559835.0722327096</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="G6" t="n">
-        <v>559835.0722327103</v>
+        <v>560439.8316447423</v>
       </c>
       <c r="H6" t="n">
-        <v>559835.0722327101</v>
+        <v>560439.8316447424</v>
       </c>
       <c r="I6" t="n">
-        <v>559835.0722327103</v>
+        <v>560439.8316447423</v>
       </c>
       <c r="J6" t="n">
-        <v>383411.853040117</v>
+        <v>384016.6124521493</v>
       </c>
       <c r="K6" t="n">
-        <v>559835.0722327104</v>
+        <v>560439.8316447423</v>
       </c>
       <c r="L6" t="n">
-        <v>559835.0722327102</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="M6" t="n">
-        <v>430192.7573937654</v>
+        <v>430797.5168057975</v>
       </c>
       <c r="N6" t="n">
-        <v>559835.0722327101</v>
+        <v>560439.8316447423</v>
       </c>
       <c r="O6" t="n">
-        <v>559835.07223271</v>
+        <v>560439.8316447424</v>
       </c>
       <c r="P6" t="n">
-        <v>559835.0722327098</v>
+        <v>560439.8316447421</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26968,40 +26968,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>315.4020750510521</v>
       </c>
       <c r="G2" t="n">
-        <v>154.2703906151712</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>3.866209516361153</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.2782375507881</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>57.86053452856288</v>
+        <v>172.5379819929648</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>20.56176979023752</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809428</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858303</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.263859234673482</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>126.2654504674965</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31524,7 +31524,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,7 +31536,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I23" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R23" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,37 +32779,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H24" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J24" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32818,7 +32818,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32867,16 +32867,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L25" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N25" t="n">
         <v>300.7247737883114</v>
@@ -32885,19 +32885,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q25" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S25" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780294</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H27" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q28" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>267.239275376486</v>
       </c>
       <c r="K14" t="n">
-        <v>654.7059126660132</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>502.5482327048871</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>836.7500320793071</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359047</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>883.6236994779125</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>210.5845066849054</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400168</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400177</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R29" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>727.3874636142359</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>654.7059126660123</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427827</v>
@@ -38031,16 +38031,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P44" t="n">
-        <v>647.6020634880859</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
